--- a/ol-handback/oltest/handback-status.xlsx
+++ b/ol-handback/oltest/handback-status.xlsx
@@ -28,7 +28,7 @@
     <t>fb725adb-35ea-46a1-9779-7d7ffb4de3e1.md</t>
   </si>
   <si>
-    <t>Not localized</t>
+    <t>Handed back</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -37,19 +37,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Latest Handoff File</t>
-  </si>
-  <si>
-    <t>Latest Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Latest Target File</t>
-  </si>
-  <si>
-    <t>Latest Handback File</t>
-  </si>
-  <si>
-    <t>Latest Handback DateTime</t>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
   </si>
   <si>
     <t>Handoff Reason</t>
@@ -58,22 +58,22 @@
     <t>Dependency From</t>
   </si>
   <si>
+    <t>fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-07 02:31:42</t>
   </si>
   <si>
-    <t>fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2016-01-07 02:33:11</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
+    <t>fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-07 02:31:57</t>
-  </si>
-  <si>
-    <t>fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.de-de.xlf</t>
   </si>
   <si>
     <t>2016-01-07 02:33:37</t>
@@ -214,14 +214,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>16</v>
@@ -233,8 +236,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.md" r:id="rId1"/>
-    <hyperlink ref="E2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.md" r:id="rId2"/>
-    <hyperlink ref="F2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.zh-cn.xlf" r:id="rId3"/>
+    <hyperlink ref="C2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.zh-cn.xlf" r:id="rId2"/>
+    <hyperlink ref="E2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.zh-cn.xlf" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
@@ -284,14 +288,17 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>20</v>
@@ -303,8 +310,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.md" r:id="rId1"/>
-    <hyperlink ref="E2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.md" r:id="rId2"/>
-    <hyperlink ref="F2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.de-de.xlf" r:id="rId3"/>
+    <hyperlink ref="C2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.de-de.xlf" r:id="rId2"/>
+    <hyperlink ref="E2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.md" r:id="rId3"/>
+    <hyperlink ref="F2" display="fb725adb-35ea-46a1-9779-7d7ffb4de3e1.e7acdc3f3dd1279889781c8d2132960756381a10.de-de.xlf" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/ol-handback/oltest/handback-status.xlsx
+++ b/ol-handback/oltest/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>9c0760a9-f347-488d-8db0-4bdee644a390.c42fec1a81d9d494a9c774512ddb626f1ccb1250.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-07 07:47:14</t>
+  </si>
+  <si>
+    <t>2016-01-07 07:47:57</t>
+  </si>
+  <si>
     <t>2461a27e-affe-44d0-827a-4cc2a5d40959.fdea1a9b4c3ac48db390cb98c00fd2095bd2ba5c.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>9c0760a9-f347-488d-8db0-4bdee644a390.c42fec1a81d9d494a9c774512ddb626f1ccb1250.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-07 07:47:24</t>
+  </si>
+  <si>
+    <t>2016-01-07 07:48:15</t>
   </si>
 </sst>
 </file>
@@ -265,7 +277,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -274,7 +286,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -340,19 +352,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -366,19 +378,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
